--- a/work_00002_tumor_growth/43018_2023_668_MOESM5_ESM.xlsx
+++ b/work_00002_tumor_growth/43018_2023_668_MOESM5_ESM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Miki\Ali's paper\FINAL REVISION R2 Sept 2023\Source data individual tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrept\OneDrive\Desktop\how-to-ggplot\work_00002_tumor_growth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3569B2AA-27A2-4904-B908-3DB3A626C4BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D41662-2998-4B44-9978-41F85CC631A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{B5684737-D667-DA4B-BEBC-857A2AB5FB98}"/>
+    <workbookView xWindow="795" yWindow="330" windowWidth="24540" windowHeight="11295" xr2:uid="{B5684737-D667-DA4B-BEBC-857A2AB5FB98}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 3" sheetId="9" r:id="rId1"/>
@@ -25,9 +25,9 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -373,42 +373,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,7 +424,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -722,18 +722,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE4699E-3305-7140-84C8-67D4C2725D7C}">
   <dimension ref="B1:AE232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113:V121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
@@ -804,10 +807,10 @@
       <c r="AD3" s="10"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -837,7 +840,7 @@
       <c r="AD4" s="10"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -873,34 +876,34 @@
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -1325,11 +1328,11 @@
       <c r="AD12" s="10"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -2014,11 +2017,11 @@
       <c r="AD31" s="10"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -2997,12 +3000,12 @@
       <c r="AD58" s="10"/>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -4192,10 +4195,10 @@
       <c r="AD89" s="10"/>
     </row>
     <row r="90" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="22"/>
+      <c r="C90" s="27"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
@@ -4225,68 +4228,68 @@
       <c r="AD90" s="10"/>
     </row>
     <row r="91" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="23"/>
-      <c r="R91" s="23"/>
-      <c r="S91" s="23"/>
-      <c r="T91" s="23"/>
-      <c r="U91" s="23"/>
-      <c r="V91" s="23"/>
-      <c r="W91" s="23"/>
-      <c r="X91" s="23"/>
-      <c r="Y91" s="23"/>
-      <c r="Z91" s="23"/>
-      <c r="AA91" s="23"/>
-      <c r="AB91" s="23"/>
-      <c r="AC91" s="23"/>
-      <c r="AD91" s="23"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="24"/>
+      <c r="U91" s="24"/>
+      <c r="V91" s="24"/>
+      <c r="W91" s="24"/>
+      <c r="X91" s="24"/>
+      <c r="Y91" s="24"/>
+      <c r="Z91" s="24"/>
+      <c r="AA91" s="24"/>
+      <c r="AB91" s="24"/>
+      <c r="AC91" s="24"/>
+      <c r="AD91" s="24"/>
     </row>
     <row r="92" spans="2:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="26"/>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27" t="s">
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27" t="s">
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="27"/>
-      <c r="T92" s="27"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="27"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+      <c r="V92" s="29"/>
       <c r="W92" s="28" t="s">
         <v>0</v>
       </c>
@@ -4831,10 +4834,10 @@
       <c r="AD100" s="10"/>
     </row>
     <row r="101" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="30"/>
+      <c r="C101" s="23"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
@@ -5237,10 +5240,10 @@
       <c r="AD112" s="10"/>
     </row>
     <row r="113" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="22"/>
+      <c r="C113" s="27"/>
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
@@ -5273,28 +5276,28 @@
       <c r="B114" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="C114" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
-      <c r="M114" s="23"/>
-      <c r="N114" s="23"/>
-      <c r="O114" s="23"/>
-      <c r="P114" s="23"/>
-      <c r="Q114" s="23"/>
-      <c r="R114" s="23"/>
-      <c r="S114" s="23"/>
-      <c r="T114" s="23"/>
-      <c r="U114" s="23"/>
-      <c r="V114" s="23"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+      <c r="N114" s="24"/>
+      <c r="O114" s="24"/>
+      <c r="P114" s="24"/>
+      <c r="Q114" s="24"/>
+      <c r="R114" s="24"/>
+      <c r="S114" s="24"/>
+      <c r="T114" s="24"/>
+      <c r="U114" s="24"/>
+      <c r="V114" s="24"/>
       <c r="W114" s="10"/>
       <c r="X114" s="10"/>
       <c r="Y114" s="10"/>
@@ -6026,10 +6029,10 @@
       <c r="AD129" s="10"/>
     </row>
     <row r="130" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C130" s="30"/>
+      <c r="C130" s="23"/>
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
@@ -7169,10 +7172,10 @@
       <c r="AD162" s="10"/>
     </row>
     <row r="163" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C163" s="30"/>
+      <c r="C163" s="23"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
@@ -7616,13 +7619,13 @@
       <c r="AD175" s="10"/>
     </row>
     <row r="176" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B176" s="31" t="s">
+      <c r="B176" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C176" s="25"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="25"/>
-      <c r="F176" s="25"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
@@ -8621,10 +8624,10 @@
       <c r="AD198" s="3"/>
     </row>
     <row r="199" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C199" s="30"/>
+      <c r="C199" s="23"/>
       <c r="D199" s="10"/>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
@@ -9808,30 +9811,11 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D201:D210"/>
-    <mergeCell ref="D211:D220"/>
-    <mergeCell ref="D221:D230"/>
-    <mergeCell ref="H178:H187"/>
-    <mergeCell ref="H189:H196"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="C114:V114"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D132:D141"/>
-    <mergeCell ref="D142:D151"/>
-    <mergeCell ref="D152:D161"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="C91:AD91"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="C115:L115"/>
-    <mergeCell ref="M115:V115"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="I92:O92"/>
-    <mergeCell ref="P92:V92"/>
-    <mergeCell ref="W92:AD92"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="R6:X6"/>
+    <mergeCell ref="C5:X5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="E15:E22"/>
     <mergeCell ref="E23:E30"/>
     <mergeCell ref="B4:C4"/>
@@ -9844,11 +9828,30 @@
     <mergeCell ref="E34:E41"/>
     <mergeCell ref="E42:E49"/>
     <mergeCell ref="E50:E57"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="R6:X6"/>
-    <mergeCell ref="C5:X5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="C91:AD91"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="C115:L115"/>
+    <mergeCell ref="M115:V115"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="I92:O92"/>
+    <mergeCell ref="P92:V92"/>
+    <mergeCell ref="W92:AD92"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="C114:V114"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D132:D141"/>
+    <mergeCell ref="D142:D151"/>
+    <mergeCell ref="D152:D161"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D201:D210"/>
+    <mergeCell ref="D211:D220"/>
+    <mergeCell ref="D221:D230"/>
+    <mergeCell ref="H178:H187"/>
+    <mergeCell ref="H189:H196"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
